--- a/biology/Botanique/Melinis/Melinis.xlsx
+++ b/biology/Botanique/Melinis/Melinis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melinis est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire de l'hémisphère sud, principalement d'Afrique tropicale et australe.
 Ce sont des plantes herbacées, annuelles ou vivaces, au port décombant, pouvant atteindre 1;2m de haut.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre melinis  sont des plantes herbacées, annuelles ou vivaces, au tiges (chaumes) solides, décombantes, pouvant atteindre de 30 à 120 cm.
 La ligule est une membrane ciliée ou réduite à une rangée de poils.
@@ -520,7 +534,7 @@
 L'inflorescence est une panicule terminale, regroupant des épillets oblongs, plus ou moins comprimés latéralement, longs de 1 à 4 mm. La désarticulation se produit en dessous des glumes, l'épillet se séparant en entier avec ses glumes.
 Les glumes, membraneuses, sont inégales, la glume inférieure est minuscule et sans nervure, parfois réduite à une ride, la glume supérieure, presque aussi longue que la lemme adjacente, droite, lancéolée, parfois bifide, portant parfois une arête réduite entre les lobes, présente sept nervures. 
 Le fleuron inférieur est stérile. Les fleurons fertiles, hermaphrodites, comptent trois étamines et deux stigmates. Les lodicules sont présents. Le rachillet se termine par un fleuron fertile.
-Le fruit est un caryopse, fusiforme, avec un embryon dont la longueur est la moitié de celle du caryopse et un hile ponctué[1].
+Le fruit est un caryopse, fusiforme, avec un embryon dont la longueur est la moitié de celle du caryopse et un hile ponctué.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (20 octobre 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (20 octobre 2016) :
 Melinis ambigua Hack.
 Melinis amethystea (Franch.) Zizka
 Melinis angolensis Rendle
@@ -574,7 +590,7 @@
 Melinis tenuissima Stapf
 Melinis tomentosa Rendle
 Melinis welwitschii Rendle
-Selon The Plant List            (20 octobre 2016)[3] :
+Selon The Plant List            (20 octobre 2016) :
 Melinis ambigua Hack.
 Melinis amethystea (Franch.) Zizka
 Melinis angolensis Rendle
@@ -625,9 +641,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (20 octobre 2016)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (20 octobre 2016) :
 Melinis ambigua Hack. (1901)
 sous-espèce Melinis ambigua subsp. ambigua
 sous-espèce Melinis ambigua subsp. longicauda (Mez) Zizka (1988)
